--- a/markdown/code/2.2_Table_clinical_characteristics.xlsx
+++ b/markdown/code/2.2_Table_clinical_characteristics.xlsx
@@ -392,22 +392,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>72.2 (66.7)</t>
+          <t>NA (NA)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>76.7 (72.0)</t>
+          <t>NA (NA)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.3 (51.3)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>NA (NA)</t>
         </is>
       </c>
     </row>
